--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>用例</t>
   </si>
@@ -139,7 +139,7 @@
     <t>/html/body/div[2]/div/div[2]/div/div[2]/div[2]/form/div/div[1]/div/div/div[2]/div/div/input</t>
   </si>
   <si>
-    <t>测试主体ex3</t>
+    <t>测试主体ex19</t>
   </si>
   <si>
     <t>输入税务号</t>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>/html/body/div[2]/div/div[2]/div/div[2]/div[3]/button[2]/span</t>
+  </si>
+  <si>
+    <t>断言成功提示</t>
+  </si>
+  <si>
+    <t>asserts</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'ant-message-success') and contains(@class, 'ant-message-custom-content')]/span[2]</t>
+  </si>
+  <si>
+    <t>添加成功</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1141,7 +1153,7 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="90.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="108.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="69" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1498,6 +1510,26 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -139,7 +139,7 @@
     <t>/html/body/div[2]/div/div[2]/div/div[2]/div[2]/form/div/div[1]/div/div/div[2]/div/div/input</t>
   </si>
   <si>
-    <t>测试主体ex19</t>
+    <t>测试主体ex25</t>
   </si>
   <si>
     <t>输入税务号</t>
@@ -151,7 +151,7 @@
     <t>选择国内发票</t>
   </si>
   <si>
-    <t>hide_div</t>
+    <t>get_hide_elements</t>
   </si>
   <si>
     <t>/html/body/div[2]/div/div[2]/div/div[2]/div[2]/form/div/div[3]/div/div/div[2]/div/div/div</t>
@@ -1152,7 +1152,7 @@
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="108.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="69" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>

--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -139,7 +139,7 @@
     <t>/html/body/div[2]/div/div[2]/div/div[2]/div[2]/form/div/div[1]/div/div/div[2]/div/div/input</t>
   </si>
   <si>
-    <t>测试主体ex25</t>
+    <t>测试主体ex28</t>
   </si>
   <si>
     <t>输入税务号</t>

--- a/test_excel.xlsx
+++ b/test_excel.xlsx
@@ -139,7 +139,7 @@
     <t>/html/body/div[2]/div/div[2]/div/div[2]/div[2]/form/div/div[1]/div/div/div[2]/div/div/input</t>
   </si>
   <si>
-    <t>测试主体ex28</t>
+    <t>测试主体ex29</t>
   </si>
   <si>
     <t>输入税务号</t>
